--- a/Crawling/crawling_data/day_genie/day_genie_20220311.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="236">
   <si>
     <t>날짜</t>
   </si>
@@ -46,8 +46,7 @@
     <t>취중고백</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>어제처럼</t>
@@ -266,8 +265,7 @@
     <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>추억은 만남보다 이별에 남아</t>
@@ -544,9 +542,6 @@
   </si>
   <si>
     <t>INVU - The 3rd Album</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
@@ -1189,7 +1184,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1223,7 +1218,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1240,7 +1235,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1257,7 +1252,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1291,7 +1286,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1342,7 +1337,7 @@
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1376,7 +1371,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1410,7 +1405,7 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1444,7 +1439,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1461,7 +1456,7 @@
         <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1495,7 +1490,7 @@
         <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1512,7 +1507,7 @@
         <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1529,7 +1524,7 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1546,7 +1541,7 @@
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1580,7 +1575,7 @@
         <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1632,7 +1627,7 @@
         <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1649,7 +1644,7 @@
         <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1666,7 +1661,7 @@
         <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1683,7 +1678,7 @@
         <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1700,7 +1695,7 @@
         <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1717,7 +1712,7 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1734,7 +1729,7 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1768,7 +1763,7 @@
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1802,7 +1797,7 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1819,7 +1814,7 @@
         <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1836,7 +1831,7 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1853,7 +1848,7 @@
         <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1904,7 +1899,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1938,7 +1933,7 @@
         <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1955,7 +1950,7 @@
         <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1989,7 +1984,7 @@
         <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2006,7 +2001,7 @@
         <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2023,7 +2018,7 @@
         <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2040,7 +2035,7 @@
         <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2074,7 +2069,7 @@
         <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2091,7 +2086,7 @@
         <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2108,7 +2103,7 @@
         <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2125,7 +2120,7 @@
         <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2142,7 +2137,7 @@
         <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2159,7 +2154,7 @@
         <v>114</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2176,7 +2171,7 @@
         <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2193,7 +2188,7 @@
         <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2210,7 +2205,7 @@
         <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2227,7 +2222,7 @@
         <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2244,7 +2239,7 @@
         <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2261,7 +2256,7 @@
         <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2278,7 +2273,7 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2295,7 +2290,7 @@
         <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2329,7 +2324,7 @@
         <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2346,7 +2341,7 @@
         <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2397,7 +2392,7 @@
         <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2414,7 +2409,7 @@
         <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2431,7 +2426,7 @@
         <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2499,7 +2494,7 @@
         <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2533,7 +2528,7 @@
         <v>118</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2550,7 +2545,7 @@
         <v>164</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2567,7 +2562,7 @@
         <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2584,7 +2579,7 @@
         <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2601,7 +2596,7 @@
         <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2618,7 +2613,7 @@
         <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2669,7 +2664,7 @@
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2686,7 +2681,7 @@
         <v>171</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2720,7 +2715,7 @@
         <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2771,7 +2766,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2788,7 +2783,7 @@
         <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2805,7 +2800,7 @@
         <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
